--- a/Code/Results/Cases/Case_5_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_120/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.87730460555403</v>
+        <v>16.48010064758079</v>
       </c>
       <c r="C2">
-        <v>11.32385605928638</v>
+        <v>7.950677712841619</v>
       </c>
       <c r="D2">
-        <v>4.862758458414618</v>
+        <v>8.186079208065285</v>
       </c>
       <c r="E2">
-        <v>7.312507515933662</v>
+        <v>12.59484330226041</v>
       </c>
       <c r="F2">
-        <v>22.99430473018694</v>
+        <v>34.55390627995787</v>
       </c>
       <c r="I2">
-        <v>15.39113986455873</v>
+        <v>25.51917288694298</v>
       </c>
       <c r="J2">
-        <v>5.839564143845859</v>
+        <v>9.809917668969986</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.884568292157393</v>
+        <v>11.31865242984793</v>
       </c>
       <c r="M2">
-        <v>12.1806597367053</v>
+        <v>16.4303851080165</v>
       </c>
       <c r="N2">
-        <v>12.69326959695278</v>
+        <v>18.95874407860833</v>
       </c>
       <c r="O2">
-        <v>17.11704778468487</v>
+        <v>26.52238024649509</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.65543903531062</v>
+        <v>16.10954675742117</v>
       </c>
       <c r="C3">
-        <v>10.73251812093991</v>
+        <v>7.674397866029614</v>
       </c>
       <c r="D3">
-        <v>4.815831937284043</v>
+        <v>8.191019248885196</v>
       </c>
       <c r="E3">
-        <v>7.370418179504899</v>
+        <v>12.62125984151247</v>
       </c>
       <c r="F3">
-        <v>22.70549058600359</v>
+        <v>34.62114515603822</v>
       </c>
       <c r="I3">
-        <v>15.51808860375295</v>
+        <v>25.61777460339745</v>
       </c>
       <c r="J3">
-        <v>5.878650554417491</v>
+        <v>9.824198551371303</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.785674411246329</v>
+        <v>11.32182694776391</v>
       </c>
       <c r="M3">
-        <v>11.6732608476672</v>
+        <v>16.3545126046496</v>
       </c>
       <c r="N3">
-        <v>12.8463552238154</v>
+        <v>19.01046269371206</v>
       </c>
       <c r="O3">
-        <v>16.98686758110463</v>
+        <v>26.58807750408736</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.87656406871849</v>
+        <v>15.87987837277332</v>
       </c>
       <c r="C4">
-        <v>10.35199545574049</v>
+        <v>7.49819936785744</v>
       </c>
       <c r="D4">
-        <v>4.78819521661298</v>
+        <v>8.194803789756705</v>
       </c>
       <c r="E4">
-        <v>7.407715529973477</v>
+        <v>12.63843509017408</v>
       </c>
       <c r="F4">
-        <v>22.54551488378782</v>
+        <v>34.67004136761454</v>
       </c>
       <c r="I4">
-        <v>15.60782848832525</v>
+        <v>25.68294926579025</v>
       </c>
       <c r="J4">
-        <v>5.903403909300383</v>
+        <v>9.833423671681864</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.726550157173452</v>
+        <v>11.32500197788311</v>
       </c>
       <c r="M4">
-        <v>11.35367215107226</v>
+        <v>16.30979423943689</v>
       </c>
       <c r="N4">
-        <v>12.94358067918352</v>
+        <v>19.04397701760033</v>
       </c>
       <c r="O4">
-        <v>16.92073715150633</v>
+        <v>26.63396365734895</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.549204678159</v>
+        <v>15.78587755075016</v>
       </c>
       <c r="C5">
-        <v>10.19262684793118</v>
+        <v>7.424814990294608</v>
       </c>
       <c r="D5">
-        <v>4.777234503255283</v>
+        <v>8.196535475916594</v>
       </c>
       <c r="E5">
-        <v>7.423351145058757</v>
+        <v>12.64567496706303</v>
       </c>
       <c r="F5">
-        <v>22.48463902334866</v>
+        <v>34.69187786804912</v>
       </c>
       <c r="I5">
-        <v>15.64724384961452</v>
+        <v>25.71067273599438</v>
       </c>
       <c r="J5">
-        <v>5.913683678736832</v>
+        <v>9.837298127752005</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.702877444979853</v>
+        <v>11.32660501688427</v>
       </c>
       <c r="M5">
-        <v>11.2215955454709</v>
+        <v>16.29205349543292</v>
       </c>
       <c r="N5">
-        <v>12.98401400191767</v>
+        <v>19.05807767521973</v>
       </c>
       <c r="O5">
-        <v>16.89717375383021</v>
+        <v>26.65405526740384</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.49424845638594</v>
+        <v>15.77024799402681</v>
       </c>
       <c r="C6">
-        <v>10.16590674878379</v>
+        <v>7.412536150652738</v>
       </c>
       <c r="D6">
-        <v>4.775432850239609</v>
+        <v>8.196834478677168</v>
       </c>
       <c r="E6">
-        <v>7.425973776520932</v>
+        <v>12.64689170546495</v>
       </c>
       <c r="F6">
-        <v>22.47478958646575</v>
+        <v>34.69561911855067</v>
       </c>
       <c r="I6">
-        <v>15.65395720836593</v>
+        <v>25.71534649604456</v>
       </c>
       <c r="J6">
-        <v>5.9154023419173</v>
+        <v>9.837948442357739</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.698972581917763</v>
+        <v>11.32688990068148</v>
       </c>
       <c r="M6">
-        <v>11.19955883469705</v>
+        <v>16.28913715210651</v>
       </c>
       <c r="N6">
-        <v>12.99077707459891</v>
+        <v>19.06044588280567</v>
       </c>
       <c r="O6">
-        <v>16.89346290485882</v>
+        <v>26.65747550108946</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.87218937990867</v>
+        <v>15.87861212487007</v>
       </c>
       <c r="C7">
-        <v>10.34986345240159</v>
+        <v>7.497215990915305</v>
       </c>
       <c r="D7">
-        <v>4.788046168776274</v>
+        <v>8.194826376098083</v>
       </c>
       <c r="E7">
-        <v>7.407924630428488</v>
+        <v>12.63853175381774</v>
       </c>
       <c r="F7">
-        <v>22.54467649174872</v>
+        <v>34.67032812949095</v>
       </c>
       <c r="I7">
-        <v>15.60834869020873</v>
+        <v>25.68331844104708</v>
       </c>
       <c r="J7">
-        <v>5.903541762305875</v>
+        <v>9.833475457297689</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.726229169436516</v>
+        <v>11.32502234394193</v>
       </c>
       <c r="M7">
-        <v>11.35189812043962</v>
+        <v>16.309553012148</v>
       </c>
       <c r="N7">
-        <v>12.94412268301526</v>
+        <v>19.04416538775306</v>
       </c>
       <c r="O7">
-        <v>16.92040577805053</v>
+        <v>26.63422898446576</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.45226428248971</v>
+        <v>16.35285609306511</v>
       </c>
       <c r="C8">
-        <v>11.12362585666414</v>
+        <v>7.856816696285626</v>
       </c>
       <c r="D8">
-        <v>4.846337568500225</v>
+        <v>8.187626914685131</v>
       </c>
       <c r="E8">
-        <v>7.332113399793247</v>
+        <v>12.60375378617601</v>
       </c>
       <c r="F8">
-        <v>22.89109353622392</v>
+        <v>34.57550884316466</v>
       </c>
       <c r="I8">
-        <v>15.43239050497069</v>
+        <v>25.55220880344107</v>
       </c>
       <c r="J8">
-        <v>5.852886423184025</v>
+        <v>9.814747148099492</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.850149994588521</v>
+        <v>11.31949315226159</v>
       </c>
       <c r="M8">
-        <v>12.00747968698913</v>
+        <v>16.4038444226948</v>
       </c>
       <c r="N8">
-        <v>12.74538344148533</v>
+        <v>18.97621220899608</v>
       </c>
       <c r="O8">
-        <v>17.06924844950916</v>
+        <v>26.54387983664516</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.37265058501807</v>
+        <v>17.26034225288761</v>
       </c>
       <c r="C9">
-        <v>12.49989716638627</v>
+        <v>8.507319149653398</v>
       </c>
       <c r="D9">
-        <v>4.969716038668088</v>
+        <v>8.17944697107278</v>
       </c>
       <c r="E9">
-        <v>7.197300925282669</v>
+        <v>12.54310833109811</v>
       </c>
       <c r="F9">
-        <v>23.70971379457576</v>
+        <v>34.45007840577208</v>
       </c>
       <c r="I9">
-        <v>15.18654129302835</v>
+        <v>25.33189331479678</v>
       </c>
       <c r="J9">
-        <v>5.759395611567958</v>
+        <v>9.781628826093421</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.104962282422375</v>
+        <v>11.31833466758911</v>
       </c>
       <c r="M9">
-        <v>13.22243649851627</v>
+        <v>16.60298794424171</v>
       </c>
       <c r="N9">
-        <v>12.3812743114267</v>
+        <v>18.85686616881368</v>
       </c>
       <c r="O9">
-        <v>17.47405095418601</v>
+        <v>26.41082466532642</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.30052895071616</v>
+        <v>17.9064605399833</v>
       </c>
       <c r="C10">
-        <v>13.42251991482327</v>
+        <v>8.94889968884039</v>
       </c>
       <c r="D10">
-        <v>5.06552313001312</v>
+        <v>8.177025507401664</v>
       </c>
       <c r="E10">
-        <v>7.106777865181717</v>
+        <v>12.50312027911501</v>
       </c>
       <c r="F10">
-        <v>24.39746418425216</v>
+        <v>34.39494853986371</v>
       </c>
       <c r="I10">
-        <v>15.07451506263759</v>
+        <v>25.19249787620129</v>
       </c>
       <c r="J10">
-        <v>5.694066389415365</v>
+        <v>9.759474983064475</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.298206258589292</v>
+        <v>11.32332830699926</v>
       </c>
       <c r="M10">
-        <v>14.06438242186708</v>
+        <v>16.75717128931009</v>
       </c>
       <c r="N10">
-        <v>12.12941361074187</v>
+        <v>18.77759833899385</v>
       </c>
       <c r="O10">
-        <v>17.84444016575039</v>
+        <v>26.34009120552792</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.13036047107699</v>
+        <v>18.19459842408565</v>
       </c>
       <c r="C11">
-        <v>13.82274990977464</v>
+        <v>9.141381776478298</v>
       </c>
       <c r="D11">
-        <v>5.110148025607068</v>
+        <v>8.176695925054936</v>
       </c>
       <c r="E11">
-        <v>7.067470056575498</v>
+        <v>12.48591278723257</v>
       </c>
       <c r="F11">
-        <v>24.72918501788684</v>
+        <v>34.37792632886298</v>
       </c>
       <c r="I11">
-        <v>15.04030762466871</v>
+        <v>25.13397197706381</v>
       </c>
       <c r="J11">
-        <v>5.665028571898178</v>
+        <v>9.749865078093846</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.387186701261034</v>
+        <v>11.32685538155563</v>
       </c>
       <c r="M11">
-        <v>14.43518099219328</v>
+        <v>16.8288419850804</v>
       </c>
       <c r="N11">
-        <v>12.01826268144216</v>
+        <v>18.74335132351004</v>
       </c>
       <c r="O11">
-        <v>18.0295210565941</v>
+        <v>26.31380250129316</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.43788613838725</v>
+        <v>18.3027765107556</v>
       </c>
       <c r="C12">
-        <v>13.97149605287063</v>
+        <v>9.213026904177637</v>
       </c>
       <c r="D12">
-        <v>5.127189210657557</v>
+        <v>8.176681471940329</v>
       </c>
       <c r="E12">
-        <v>7.05285681414434</v>
+        <v>12.47953756306028</v>
       </c>
       <c r="F12">
-        <v>24.85750826510953</v>
+        <v>34.37263950004024</v>
       </c>
       <c r="I12">
-        <v>15.02992405737419</v>
+        <v>25.11251322630918</v>
       </c>
       <c r="J12">
-        <v>5.654126587960288</v>
+        <v>9.746293014973514</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.421016079146507</v>
+        <v>11.32837022271224</v>
       </c>
       <c r="M12">
-        <v>14.57375854778178</v>
+        <v>16.85618625334668</v>
       </c>
       <c r="N12">
-        <v>11.97666938885132</v>
+        <v>18.73064250295618</v>
       </c>
       <c r="O12">
-        <v>18.10204200409096</v>
+        <v>26.30469574863991</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.37195243906119</v>
+        <v>18.27952148022211</v>
       </c>
       <c r="C13">
-        <v>13.93958607871727</v>
+        <v>9.197652685109805</v>
       </c>
       <c r="D13">
-        <v>5.123512850892525</v>
+        <v>8.176679687390575</v>
       </c>
       <c r="E13">
-        <v>7.055991904022102</v>
+        <v>12.48090432412451</v>
       </c>
       <c r="F13">
-        <v>24.82975123867951</v>
+        <v>34.37372655845844</v>
       </c>
       <c r="I13">
-        <v>15.03204342543965</v>
+        <v>25.11710343460688</v>
       </c>
       <c r="J13">
-        <v>5.656470408278674</v>
+        <v>9.747059347566656</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.413724644319331</v>
+        <v>11.32803602564327</v>
       </c>
       <c r="M13">
-        <v>14.54399615837818</v>
+        <v>16.85028835742233</v>
       </c>
       <c r="N13">
-        <v>11.98560503964639</v>
+        <v>18.73336803400663</v>
       </c>
       <c r="O13">
-        <v>18.08631430316589</v>
+        <v>26.30661930590338</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.15579493593712</v>
+        <v>18.2035175644264</v>
       </c>
       <c r="C14">
-        <v>13.83504374219975</v>
+        <v>9.147301180600149</v>
       </c>
       <c r="D14">
-        <v>5.111547194194331</v>
+        <v>8.176692528189653</v>
       </c>
       <c r="E14">
-        <v>7.066262353100434</v>
+        <v>12.48538547319084</v>
       </c>
       <c r="F14">
-        <v>24.7396880196376</v>
+        <v>34.37746814671628</v>
       </c>
       <c r="I14">
-        <v>15.03940091525527</v>
+        <v>25.13219244205225</v>
       </c>
       <c r="J14">
-        <v>5.664129798040264</v>
+        <v>9.749569861236292</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.389967280740496</v>
+        <v>11.32697642450708</v>
       </c>
       <c r="M14">
-        <v>14.44661904984479</v>
+        <v>16.83108761695778</v>
       </c>
       <c r="N14">
-        <v>12.01483077776737</v>
+        <v>18.74230055947224</v>
       </c>
       <c r="O14">
-        <v>18.03543833788533</v>
+        <v>26.31303627643382</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.02252002489093</v>
+        <v>18.15683851540814</v>
       </c>
       <c r="C15">
-        <v>13.77064210604783</v>
+        <v>9.116296470202993</v>
       </c>
       <c r="D15">
-        <v>5.104236260494469</v>
+        <v>8.176714744893056</v>
       </c>
       <c r="E15">
-        <v>7.072588777413952</v>
+        <v>12.48814863790227</v>
       </c>
       <c r="F15">
-        <v>24.68487413213508</v>
+        <v>34.37991093535052</v>
       </c>
       <c r="I15">
-        <v>15.04424714772576</v>
+        <v>25.14152657700885</v>
       </c>
       <c r="J15">
-        <v>5.668833519237934</v>
+        <v>9.751116339870856</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.37543214245508</v>
+        <v>11.32635068699908</v>
       </c>
       <c r="M15">
-        <v>14.38673155686778</v>
+        <v>16.8193527084746</v>
       </c>
       <c r="N15">
-        <v>12.03279730815814</v>
+        <v>18.74780579613982</v>
       </c>
       <c r="O15">
-        <v>18.00459379679951</v>
+        <v>26.31707735709648</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.24535421659884</v>
+        <v>17.88750479056152</v>
       </c>
       <c r="C16">
-        <v>13.39597083825524</v>
+        <v>8.936148371525023</v>
       </c>
       <c r="D16">
-        <v>5.062627140975708</v>
+        <v>8.177062524780542</v>
       </c>
       <c r="E16">
-        <v>7.109384600900766</v>
+        <v>12.50426457109177</v>
       </c>
       <c r="F16">
-        <v>24.37616469303726</v>
+        <v>34.39622316446736</v>
       </c>
       <c r="I16">
-        <v>15.07710136263891</v>
+        <v>25.19642109529016</v>
       </c>
       <c r="J16">
-        <v>5.695977450154182</v>
+        <v>9.760112404650281</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.292411045641653</v>
+        <v>11.32312295612448</v>
       </c>
       <c r="M16">
-        <v>14.03989699321814</v>
+        <v>16.75251689257619</v>
       </c>
       <c r="N16">
-        <v>12.13674684190626</v>
+        <v>18.77987285923335</v>
       </c>
       <c r="O16">
-        <v>17.83268285636014</v>
+        <v>26.34192785465578</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.75655553643298</v>
+        <v>17.72072100722216</v>
       </c>
       <c r="C17">
-        <v>13.16112275140076</v>
+        <v>8.823455635401816</v>
       </c>
       <c r="D17">
-        <v>5.037363022664927</v>
+        <v>8.177473135347196</v>
       </c>
       <c r="E17">
-        <v>7.132438762859633</v>
+        <v>12.51440264656635</v>
       </c>
       <c r="F17">
-        <v>24.1916103636661</v>
+        <v>34.40829428570965</v>
       </c>
       <c r="I17">
-        <v>15.10166022495197</v>
+        <v>25.23134929699855</v>
       </c>
       <c r="J17">
-        <v>5.712801030370603</v>
+        <v>9.765750850163874</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.24174063694978</v>
+        <v>11.32146348186067</v>
       </c>
       <c r="M17">
-        <v>13.82393647955762</v>
+        <v>16.71189624650024</v>
       </c>
       <c r="N17">
-        <v>12.20139607014495</v>
+        <v>18.80000854652748</v>
       </c>
       <c r="O17">
-        <v>17.73150686298007</v>
+        <v>26.35868210609475</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.4709673125657</v>
+        <v>17.62425252193892</v>
       </c>
       <c r="C18">
-        <v>13.02421128225913</v>
+        <v>8.757849413730543</v>
       </c>
       <c r="D18">
-        <v>5.022930246351822</v>
+        <v>8.177782008301206</v>
       </c>
       <c r="E18">
-        <v>7.145874889199937</v>
+        <v>12.52032638018644</v>
       </c>
       <c r="F18">
-        <v>24.08723539034711</v>
+        <v>34.41599560700443</v>
       </c>
       <c r="I18">
-        <v>15.11735282376305</v>
+        <v>25.25189887726382</v>
       </c>
       <c r="J18">
-        <v>5.722541830361539</v>
+        <v>9.769038001849303</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.212698469990736</v>
+        <v>11.32062724749892</v>
       </c>
       <c r="M18">
-        <v>13.698576502613</v>
+        <v>16.68867750408117</v>
       </c>
       <c r="N18">
-        <v>12.23890227643682</v>
+        <v>18.81176069349647</v>
       </c>
       <c r="O18">
-        <v>17.67487199104261</v>
+        <v>26.36887287222873</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.37350667881148</v>
+        <v>17.59150061982855</v>
       </c>
       <c r="C19">
-        <v>12.97754108524488</v>
+        <v>8.735502068244596</v>
       </c>
       <c r="D19">
-        <v>5.018060688259869</v>
+        <v>8.177899093269737</v>
       </c>
       <c r="E19">
-        <v>7.150454281600766</v>
+        <v>12.52234797118865</v>
       </c>
       <c r="F19">
-        <v>24.05220086598124</v>
+        <v>34.41873335903199</v>
       </c>
       <c r="I19">
-        <v>15.12293038383999</v>
+        <v>25.25893554825385</v>
       </c>
       <c r="J19">
-        <v>5.725851060435855</v>
+        <v>9.770158552564157</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.202883449541384</v>
+        <v>11.32036446168635</v>
       </c>
       <c r="M19">
-        <v>13.65593778858318</v>
+        <v>16.6808414588209</v>
       </c>
       <c r="N19">
-        <v>12.25165635130071</v>
+        <v>18.81576910033504</v>
       </c>
       <c r="O19">
-        <v>17.65596253766817</v>
+        <v>26.37241841909709</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.80904844677343</v>
+        <v>17.73853195620788</v>
       </c>
       <c r="C20">
-        <v>13.18631255893087</v>
+        <v>8.835533839476966</v>
       </c>
       <c r="D20">
-        <v>5.040042291171563</v>
+        <v>8.177421905570695</v>
       </c>
       <c r="E20">
-        <v>7.12996637658697</v>
+        <v>12.51331385310969</v>
       </c>
       <c r="F20">
-        <v>24.21107271586614</v>
+        <v>34.40693080369466</v>
       </c>
       <c r="I20">
-        <v>15.09888256571837</v>
+        <v>25.22758353404572</v>
       </c>
       <c r="J20">
-        <v>5.711003502030555</v>
+        <v>9.765146069408438</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.247124167171544</v>
+        <v>11.32162790647973</v>
       </c>
       <c r="M20">
-        <v>13.84704500131381</v>
+        <v>16.71620547424731</v>
       </c>
       <c r="N20">
-        <v>12.19448072463198</v>
+        <v>18.79784741450091</v>
       </c>
       <c r="O20">
-        <v>17.74211550615749</v>
+        <v>26.35684122193113</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.21946727262945</v>
+        <v>18.2258678643393</v>
       </c>
       <c r="C21">
-        <v>13.86582673422925</v>
+        <v>9.162124657035948</v>
       </c>
       <c r="D21">
-        <v>5.115057980379882</v>
+        <v>8.176685766931437</v>
       </c>
       <c r="E21">
-        <v>7.063238274459753</v>
+        <v>12.48406543172429</v>
       </c>
       <c r="F21">
-        <v>24.766068336064</v>
+        <v>34.37633769188248</v>
       </c>
       <c r="I21">
-        <v>15.03716878457094</v>
+        <v>25.12774132621227</v>
       </c>
       <c r="J21">
-        <v>5.661877530230263</v>
+        <v>9.748830646527102</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.396941899472388</v>
+        <v>11.32728280204687</v>
       </c>
       <c r="M21">
-        <v>14.47527145566024</v>
+        <v>16.83672192998559</v>
       </c>
       <c r="N21">
-        <v>12.00623292905127</v>
+        <v>18.7396698163395</v>
       </c>
       <c r="O21">
-        <v>18.05031539558801</v>
+        <v>26.31112842610588</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.10215983282131</v>
+        <v>18.5388871375909</v>
       </c>
       <c r="C22">
-        <v>14.29353706390152</v>
+        <v>9.368308050046117</v>
       </c>
       <c r="D22">
-        <v>5.16491371827818</v>
+        <v>8.176847556117748</v>
       </c>
       <c r="E22">
-        <v>7.02121320826754</v>
+        <v>12.46577081682503</v>
       </c>
       <c r="F22">
-        <v>25.14456869013011</v>
+        <v>34.36309937030742</v>
       </c>
       <c r="I22">
-        <v>15.01189359954405</v>
+        <v>25.06659114075855</v>
       </c>
       <c r="J22">
-        <v>5.630316866238569</v>
+        <v>9.738557961955085</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.495631489195828</v>
+        <v>11.3320225437418</v>
       </c>
       <c r="M22">
-        <v>14.87512647374367</v>
+        <v>16.91666854816269</v>
       </c>
       <c r="N22">
-        <v>11.8861034190811</v>
+        <v>18.7031612243618</v>
       </c>
       <c r="O22">
-        <v>18.26595313135665</v>
+        <v>26.28619696778113</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.63460410281179</v>
+        <v>18.37235620694548</v>
       </c>
       <c r="C23">
-        <v>14.0667614588008</v>
+        <v>9.258939427578907</v>
       </c>
       <c r="D23">
-        <v>5.138231247635773</v>
+        <v>8.176702603290833</v>
       </c>
       <c r="E23">
-        <v>7.043496717794083</v>
+        <v>12.47546005130749</v>
       </c>
       <c r="F23">
-        <v>24.94111451274222</v>
+        <v>34.36954669571021</v>
       </c>
       <c r="I23">
-        <v>15.02395116076771</v>
+        <v>25.09885238035697</v>
       </c>
       <c r="J23">
-        <v>5.647112764245258</v>
+        <v>9.744005063996049</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.442894364440193</v>
+        <v>11.32939778642843</v>
       </c>
       <c r="M23">
-        <v>14.66272054406719</v>
+        <v>16.87389677606095</v>
       </c>
       <c r="N23">
-        <v>11.9499512273971</v>
+        <v>18.72250829994503</v>
       </c>
       <c r="O23">
-        <v>18.14954794768052</v>
+        <v>26.29905051954455</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.78533064597944</v>
+        <v>17.7304814319772</v>
       </c>
       <c r="C24">
-        <v>13.17493014589641</v>
+        <v>8.830075827489329</v>
       </c>
       <c r="D24">
-        <v>5.038830707084791</v>
+        <v>8.177444839727945</v>
       </c>
       <c r="E24">
-        <v>7.131083575783983</v>
+        <v>12.51380580000095</v>
       </c>
       <c r="F24">
-        <v>24.20226840452632</v>
+        <v>34.40754486202016</v>
       </c>
       <c r="I24">
-        <v>15.10013345684876</v>
+        <v>25.22928457498143</v>
       </c>
       <c r="J24">
-        <v>5.711815950317445</v>
+        <v>9.765419348929989</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.244689994654705</v>
+        <v>11.32155320301705</v>
       </c>
       <c r="M24">
-        <v>13.83660137444919</v>
+        <v>16.714256851858</v>
       </c>
       <c r="N24">
-        <v>12.19760609834077</v>
+        <v>18.79882391438778</v>
       </c>
       <c r="O24">
-        <v>17.73731456880773</v>
+        <v>26.35767174599768</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.62041413158535</v>
+        <v>17.01799005618252</v>
       </c>
       <c r="C25">
-        <v>12.14299470638022</v>
+        <v>8.337530140963821</v>
       </c>
       <c r="D25">
-        <v>4.935405127984102</v>
+        <v>8.181027323145754</v>
       </c>
       <c r="E25">
-        <v>7.232281102017152</v>
+        <v>12.55870966525312</v>
       </c>
       <c r="F25">
-        <v>23.4731580773299</v>
+        <v>34.47751659659405</v>
       </c>
       <c r="I25">
-        <v>15.24161307592113</v>
+        <v>25.38755157784107</v>
       </c>
       <c r="J25">
-        <v>5.784082258373277</v>
+        <v>9.790204171981399</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.034885458334834</v>
+        <v>11.31761713263736</v>
       </c>
       <c r="M25">
-        <v>12.90218480772857</v>
+        <v>16.54767158026237</v>
       </c>
       <c r="N25">
-        <v>12.47703316286797</v>
+        <v>18.88766998462999</v>
       </c>
       <c r="O25">
-        <v>17.35199517770232</v>
+        <v>26.4420823866872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_120/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.48010064758079</v>
+        <v>18.87730460555401</v>
       </c>
       <c r="C2">
-        <v>7.950677712841619</v>
+        <v>11.32385605928638</v>
       </c>
       <c r="D2">
-        <v>8.186079208065285</v>
+        <v>4.862758458414738</v>
       </c>
       <c r="E2">
-        <v>12.59484330226041</v>
+        <v>7.312507515933662</v>
       </c>
       <c r="F2">
-        <v>34.55390627995787</v>
+        <v>22.9943047301871</v>
       </c>
       <c r="I2">
-        <v>25.51917288694298</v>
+        <v>15.39113986455886</v>
       </c>
       <c r="J2">
-        <v>9.809917668969986</v>
+        <v>5.839564143845791</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.31865242984793</v>
+        <v>6.884568292157328</v>
       </c>
       <c r="M2">
-        <v>16.4303851080165</v>
+        <v>12.18065973670535</v>
       </c>
       <c r="N2">
-        <v>18.95874407860833</v>
+        <v>12.69326959695277</v>
       </c>
       <c r="O2">
-        <v>26.52238024649509</v>
+        <v>17.11704778468502</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.10954675742117</v>
+        <v>17.65543903531061</v>
       </c>
       <c r="C3">
-        <v>7.674397866029614</v>
+        <v>10.73251812093999</v>
       </c>
       <c r="D3">
-        <v>8.191019248885196</v>
+        <v>4.815831937284109</v>
       </c>
       <c r="E3">
-        <v>12.62125984151247</v>
+        <v>7.370418179504766</v>
       </c>
       <c r="F3">
-        <v>34.62114515603822</v>
+        <v>22.70549058600335</v>
       </c>
       <c r="I3">
-        <v>25.61777460339745</v>
+        <v>15.51808860375276</v>
       </c>
       <c r="J3">
-        <v>9.824198551371303</v>
+        <v>5.878650554417423</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.32182694776391</v>
+        <v>6.78567441124627</v>
       </c>
       <c r="M3">
-        <v>16.3545126046496</v>
+        <v>11.67326084766714</v>
       </c>
       <c r="N3">
-        <v>19.01046269371206</v>
+        <v>12.8463552238153</v>
       </c>
       <c r="O3">
-        <v>26.58807750408736</v>
+        <v>16.98686758110447</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.87987837277332</v>
+        <v>16.87656406871848</v>
       </c>
       <c r="C4">
-        <v>7.49819936785744</v>
+        <v>10.35199545574058</v>
       </c>
       <c r="D4">
-        <v>8.194803789756705</v>
+        <v>4.788195216613085</v>
       </c>
       <c r="E4">
-        <v>12.63843509017408</v>
+        <v>7.407715529973474</v>
       </c>
       <c r="F4">
-        <v>34.67004136761454</v>
+        <v>22.54551488378781</v>
       </c>
       <c r="I4">
-        <v>25.68294926579025</v>
+        <v>15.60782848832525</v>
       </c>
       <c r="J4">
-        <v>9.833423671681864</v>
+        <v>5.903403909300318</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.32500197788311</v>
+        <v>6.726550157173404</v>
       </c>
       <c r="M4">
-        <v>16.30979423943689</v>
+        <v>11.35367215107226</v>
       </c>
       <c r="N4">
-        <v>19.04397701760033</v>
+        <v>12.94358067918349</v>
       </c>
       <c r="O4">
-        <v>26.63396365734895</v>
+        <v>16.92073715150627</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.78587755075016</v>
+        <v>16.549204678159</v>
       </c>
       <c r="C5">
-        <v>7.424814990294608</v>
+        <v>10.19262684793118</v>
       </c>
       <c r="D5">
-        <v>8.196535475916594</v>
+        <v>4.777234503255051</v>
       </c>
       <c r="E5">
-        <v>12.64567496706303</v>
+        <v>7.423351145058692</v>
       </c>
       <c r="F5">
-        <v>34.69187786804912</v>
+        <v>22.48463902334855</v>
       </c>
       <c r="I5">
-        <v>25.71067273599438</v>
+        <v>15.64724384961451</v>
       </c>
       <c r="J5">
-        <v>9.837298127752005</v>
+        <v>5.913683678736899</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.32660501688427</v>
+        <v>6.702877444979821</v>
       </c>
       <c r="M5">
-        <v>16.29205349543292</v>
+        <v>11.22159554547087</v>
       </c>
       <c r="N5">
-        <v>19.05807767521973</v>
+        <v>12.98401400191767</v>
       </c>
       <c r="O5">
-        <v>26.65405526740384</v>
+        <v>16.89717375383018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.77024799402681</v>
+        <v>16.49424845638592</v>
       </c>
       <c r="C6">
-        <v>7.412536150652738</v>
+        <v>10.16590674878384</v>
       </c>
       <c r="D6">
-        <v>8.196834478677168</v>
+        <v>4.775432850239604</v>
       </c>
       <c r="E6">
-        <v>12.64689170546495</v>
+        <v>7.425973776520999</v>
       </c>
       <c r="F6">
-        <v>34.69561911855067</v>
+        <v>22.47478958646555</v>
       </c>
       <c r="I6">
-        <v>25.71534649604456</v>
+        <v>15.65395720836575</v>
       </c>
       <c r="J6">
-        <v>9.837948442357739</v>
+        <v>5.915402341917368</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.32688990068148</v>
+        <v>6.698972581917785</v>
       </c>
       <c r="M6">
-        <v>16.28913715210651</v>
+        <v>11.19955883469701</v>
       </c>
       <c r="N6">
-        <v>19.06044588280567</v>
+        <v>12.99077707459888</v>
       </c>
       <c r="O6">
-        <v>26.65747550108946</v>
+        <v>16.89346290485866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.87861212487007</v>
+        <v>16.87218937990868</v>
       </c>
       <c r="C7">
-        <v>7.497215990915305</v>
+        <v>10.34986345240132</v>
       </c>
       <c r="D7">
-        <v>8.194826376098083</v>
+        <v>4.788046168776219</v>
       </c>
       <c r="E7">
-        <v>12.63853175381774</v>
+        <v>7.407924630428357</v>
       </c>
       <c r="F7">
-        <v>34.67032812949095</v>
+        <v>22.54467649174882</v>
       </c>
       <c r="I7">
-        <v>25.68331844104708</v>
+        <v>15.60834869020864</v>
       </c>
       <c r="J7">
-        <v>9.833475457297689</v>
+        <v>5.903541762305875</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.32502234394193</v>
+        <v>6.72622916943662</v>
       </c>
       <c r="M7">
-        <v>16.309553012148</v>
+        <v>11.35189812043964</v>
       </c>
       <c r="N7">
-        <v>19.04416538775306</v>
+        <v>12.94412268301522</v>
       </c>
       <c r="O7">
-        <v>26.63422898446576</v>
+        <v>16.92040577805057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.35285609306511</v>
+        <v>18.45226428248972</v>
       </c>
       <c r="C8">
-        <v>7.856816696285626</v>
+        <v>11.12362585666438</v>
       </c>
       <c r="D8">
-        <v>8.187626914685131</v>
+        <v>4.846337568500285</v>
       </c>
       <c r="E8">
-        <v>12.60375378617601</v>
+        <v>7.332113399793375</v>
       </c>
       <c r="F8">
-        <v>34.57550884316466</v>
+        <v>22.89109353622386</v>
       </c>
       <c r="I8">
-        <v>25.55220880344107</v>
+        <v>15.43239050497073</v>
       </c>
       <c r="J8">
-        <v>9.814747148099492</v>
+        <v>5.852886423184122</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.31949315226159</v>
+        <v>6.850149994588466</v>
       </c>
       <c r="M8">
-        <v>16.4038444226948</v>
+        <v>12.00747968698911</v>
       </c>
       <c r="N8">
-        <v>18.97621220899608</v>
+        <v>12.74538344148536</v>
       </c>
       <c r="O8">
-        <v>26.54387983664516</v>
+        <v>17.0692484495091</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.26034225288761</v>
+        <v>21.3726505850181</v>
       </c>
       <c r="C9">
-        <v>8.507319149653398</v>
+        <v>12.49989716638627</v>
       </c>
       <c r="D9">
-        <v>8.17944697107278</v>
+        <v>4.969716038667961</v>
       </c>
       <c r="E9">
-        <v>12.54310833109811</v>
+        <v>7.197300925282793</v>
       </c>
       <c r="F9">
-        <v>34.45007840577208</v>
+        <v>23.70971379457564</v>
       </c>
       <c r="I9">
-        <v>25.33189331479678</v>
+        <v>15.18654129302828</v>
       </c>
       <c r="J9">
-        <v>9.781628826093421</v>
+        <v>5.759395611568126</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.31833466758911</v>
+        <v>7.104962282422419</v>
       </c>
       <c r="M9">
-        <v>16.60298794424171</v>
+        <v>13.22243649851628</v>
       </c>
       <c r="N9">
-        <v>18.85686616881368</v>
+        <v>12.38127431142666</v>
       </c>
       <c r="O9">
-        <v>26.41082466532642</v>
+        <v>17.47405095418596</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.9064605399833</v>
+        <v>23.30052895071615</v>
       </c>
       <c r="C10">
-        <v>8.94889968884039</v>
+        <v>13.42251991482334</v>
       </c>
       <c r="D10">
-        <v>8.177025507401664</v>
+        <v>5.065523130013213</v>
       </c>
       <c r="E10">
-        <v>12.50312027911501</v>
+        <v>7.106777865181717</v>
       </c>
       <c r="F10">
-        <v>34.39494853986371</v>
+        <v>24.39746418425219</v>
       </c>
       <c r="I10">
-        <v>25.19249787620129</v>
+        <v>15.0745150626376</v>
       </c>
       <c r="J10">
-        <v>9.759474983064475</v>
+        <v>5.69406638941533</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.32332830699926</v>
+        <v>7.298206258589247</v>
       </c>
       <c r="M10">
-        <v>16.75717128931009</v>
+        <v>14.06438242186707</v>
       </c>
       <c r="N10">
-        <v>18.77759833899385</v>
+        <v>12.12941361074183</v>
       </c>
       <c r="O10">
-        <v>26.34009120552792</v>
+        <v>17.84444016575037</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.19459842408565</v>
+        <v>24.13036047107704</v>
       </c>
       <c r="C11">
-        <v>9.141381776478298</v>
+        <v>13.8227499097746</v>
       </c>
       <c r="D11">
-        <v>8.176695925054936</v>
+        <v>5.110148025607062</v>
       </c>
       <c r="E11">
-        <v>12.48591278723257</v>
+        <v>7.067470056575502</v>
       </c>
       <c r="F11">
-        <v>34.37792632886298</v>
+        <v>24.7291850178868</v>
       </c>
       <c r="I11">
-        <v>25.13397197706381</v>
+        <v>15.04030762466866</v>
       </c>
       <c r="J11">
-        <v>9.749865078093846</v>
+        <v>5.665028571898179</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.32685538155563</v>
+        <v>7.387186701261015</v>
       </c>
       <c r="M11">
-        <v>16.8288419850804</v>
+        <v>14.43518099219328</v>
       </c>
       <c r="N11">
-        <v>18.74335132351004</v>
+        <v>12.01826268144212</v>
       </c>
       <c r="O11">
-        <v>26.31380250129316</v>
+        <v>18.02952105659407</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.3027765107556</v>
+        <v>24.43788613838735</v>
       </c>
       <c r="C12">
-        <v>9.213026904177637</v>
+        <v>13.97149605287047</v>
       </c>
       <c r="D12">
-        <v>8.176681471940329</v>
+        <v>5.127189210657507</v>
       </c>
       <c r="E12">
-        <v>12.47953756306028</v>
+        <v>7.052856814144339</v>
       </c>
       <c r="F12">
-        <v>34.37263950004024</v>
+        <v>24.85750826510941</v>
       </c>
       <c r="I12">
-        <v>25.11251322630918</v>
+        <v>15.02992405737401</v>
       </c>
       <c r="J12">
-        <v>9.746293014973514</v>
+        <v>5.654126587960288</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.32837022271224</v>
+        <v>7.421016079146512</v>
       </c>
       <c r="M12">
-        <v>16.85618625334668</v>
+        <v>14.57375854778177</v>
       </c>
       <c r="N12">
-        <v>18.73064250295618</v>
+        <v>11.97666938885125</v>
       </c>
       <c r="O12">
-        <v>26.30469574863991</v>
+        <v>18.10204200409085</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27952148022211</v>
+        <v>24.37195243906123</v>
       </c>
       <c r="C13">
-        <v>9.197652685109805</v>
+        <v>13.93958607871715</v>
       </c>
       <c r="D13">
-        <v>8.176679687390575</v>
+        <v>5.123512850892531</v>
       </c>
       <c r="E13">
-        <v>12.48090432412451</v>
+        <v>7.0559919040221</v>
       </c>
       <c r="F13">
-        <v>34.37372655845844</v>
+        <v>24.82975123867951</v>
       </c>
       <c r="I13">
-        <v>25.11710343460688</v>
+        <v>15.03204342543963</v>
       </c>
       <c r="J13">
-        <v>9.747059347566656</v>
+        <v>5.656470408278675</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.32803602564327</v>
+        <v>7.413724644319355</v>
       </c>
       <c r="M13">
-        <v>16.85028835742233</v>
+        <v>14.54399615837817</v>
       </c>
       <c r="N13">
-        <v>18.73336803400663</v>
+        <v>11.98560503964638</v>
       </c>
       <c r="O13">
-        <v>26.30661930590338</v>
+        <v>18.08631430316589</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.2035175644264</v>
+        <v>24.1557949359371</v>
       </c>
       <c r="C14">
-        <v>9.147301180600149</v>
+        <v>13.83504374219992</v>
       </c>
       <c r="D14">
-        <v>8.176692528189653</v>
+        <v>5.111547194194179</v>
       </c>
       <c r="E14">
-        <v>12.48538547319084</v>
+        <v>7.066262353100564</v>
       </c>
       <c r="F14">
-        <v>34.37746814671628</v>
+        <v>24.7396880196376</v>
       </c>
       <c r="I14">
-        <v>25.13219244205225</v>
+        <v>15.03940091525532</v>
       </c>
       <c r="J14">
-        <v>9.749569861236292</v>
+        <v>5.664129798040398</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.32697642450708</v>
+        <v>7.389967280740437</v>
       </c>
       <c r="M14">
-        <v>16.83108761695778</v>
+        <v>14.44661904984481</v>
       </c>
       <c r="N14">
-        <v>18.74230055947224</v>
+        <v>12.01483077776732</v>
       </c>
       <c r="O14">
-        <v>26.31303627643382</v>
+        <v>18.03543833788534</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.15683851540814</v>
+        <v>24.02252002489093</v>
       </c>
       <c r="C15">
-        <v>9.116296470202993</v>
+        <v>13.77064210604784</v>
       </c>
       <c r="D15">
-        <v>8.176714744893056</v>
+        <v>5.104236260494457</v>
       </c>
       <c r="E15">
-        <v>12.48814863790227</v>
+        <v>7.07258877741401</v>
       </c>
       <c r="F15">
-        <v>34.37991093535052</v>
+        <v>24.68487413213508</v>
       </c>
       <c r="I15">
-        <v>25.14152657700885</v>
+        <v>15.04424714772576</v>
       </c>
       <c r="J15">
-        <v>9.751116339870856</v>
+        <v>5.668833519237967</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.32635068699908</v>
+        <v>7.375432142455113</v>
       </c>
       <c r="M15">
-        <v>16.8193527084746</v>
+        <v>14.38673155686778</v>
       </c>
       <c r="N15">
-        <v>18.74780579613982</v>
+        <v>12.03279730815814</v>
       </c>
       <c r="O15">
-        <v>26.31707735709648</v>
+        <v>18.00459379679951</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.88750479056152</v>
+        <v>23.24535421659884</v>
       </c>
       <c r="C16">
-        <v>8.936148371525023</v>
+        <v>13.39597083825533</v>
       </c>
       <c r="D16">
-        <v>8.177062524780542</v>
+        <v>5.062627140975708</v>
       </c>
       <c r="E16">
-        <v>12.50426457109177</v>
+        <v>7.109384600900764</v>
       </c>
       <c r="F16">
-        <v>34.39622316446736</v>
+        <v>24.37616469303723</v>
       </c>
       <c r="I16">
-        <v>25.19642109529016</v>
+        <v>15.07710136263889</v>
       </c>
       <c r="J16">
-        <v>9.760112404650281</v>
+        <v>5.695977450154182</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.32312295612448</v>
+        <v>7.292411045641652</v>
       </c>
       <c r="M16">
-        <v>16.75251689257619</v>
+        <v>14.03989699321813</v>
       </c>
       <c r="N16">
-        <v>18.77987285923335</v>
+        <v>12.13674684190626</v>
       </c>
       <c r="O16">
-        <v>26.34192785465578</v>
+        <v>17.83268285636012</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.72072100722216</v>
+        <v>22.75655553643297</v>
       </c>
       <c r="C17">
-        <v>8.823455635401816</v>
+        <v>13.16112275140078</v>
       </c>
       <c r="D17">
-        <v>8.177473135347196</v>
+        <v>5.037363022664974</v>
       </c>
       <c r="E17">
-        <v>12.51440264656635</v>
+        <v>7.13243876285963</v>
       </c>
       <c r="F17">
-        <v>34.40829428570965</v>
+        <v>24.19161036366607</v>
       </c>
       <c r="I17">
-        <v>25.23134929699855</v>
+        <v>15.10166022495191</v>
       </c>
       <c r="J17">
-        <v>9.765750850163874</v>
+        <v>5.712801030370637</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.32146348186067</v>
+        <v>7.241740636949802</v>
       </c>
       <c r="M17">
-        <v>16.71189624650024</v>
+        <v>13.82393647955763</v>
       </c>
       <c r="N17">
-        <v>18.80000854652748</v>
+        <v>12.20139607014488</v>
       </c>
       <c r="O17">
-        <v>26.35868210609475</v>
+        <v>17.73150686298004</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.62425252193892</v>
+        <v>22.47096731256572</v>
       </c>
       <c r="C18">
-        <v>8.757849413730543</v>
+        <v>13.02421128225908</v>
       </c>
       <c r="D18">
-        <v>8.177782008301206</v>
+        <v>5.022930246351711</v>
       </c>
       <c r="E18">
-        <v>12.52032638018644</v>
+        <v>7.145874889199937</v>
       </c>
       <c r="F18">
-        <v>34.41599560700443</v>
+        <v>24.087235390347</v>
       </c>
       <c r="I18">
-        <v>25.25189887726382</v>
+        <v>15.11735282376298</v>
       </c>
       <c r="J18">
-        <v>9.769038001849303</v>
+        <v>5.722541830361573</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.32062724749892</v>
+        <v>7.21269846999074</v>
       </c>
       <c r="M18">
-        <v>16.68867750408117</v>
+        <v>13.698576502613</v>
       </c>
       <c r="N18">
-        <v>18.81176069349647</v>
+        <v>12.23890227643679</v>
       </c>
       <c r="O18">
-        <v>26.36887287222873</v>
+        <v>17.67487199104256</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.59150061982855</v>
+        <v>22.37350667881148</v>
       </c>
       <c r="C19">
-        <v>8.735502068244596</v>
+        <v>12.97754108524494</v>
       </c>
       <c r="D19">
-        <v>8.177899093269737</v>
+        <v>5.018060688259827</v>
       </c>
       <c r="E19">
-        <v>12.52234797118865</v>
+        <v>7.150454281600896</v>
       </c>
       <c r="F19">
-        <v>34.41873335903199</v>
+        <v>24.05220086598134</v>
       </c>
       <c r="I19">
-        <v>25.25893554825385</v>
+        <v>15.12293038384013</v>
       </c>
       <c r="J19">
-        <v>9.770158552564157</v>
+        <v>5.725851060435989</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.32036446168635</v>
+        <v>7.20288344954141</v>
       </c>
       <c r="M19">
-        <v>16.6808414588209</v>
+        <v>13.65593778858323</v>
       </c>
       <c r="N19">
-        <v>18.81576910033504</v>
+        <v>12.25165635130077</v>
       </c>
       <c r="O19">
-        <v>26.37241841909709</v>
+        <v>17.65596253766829</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.73853195620788</v>
+        <v>22.80904844677341</v>
       </c>
       <c r="C20">
-        <v>8.835533839476966</v>
+        <v>13.18631255893093</v>
       </c>
       <c r="D20">
-        <v>8.177421905570695</v>
+        <v>5.040042291171619</v>
       </c>
       <c r="E20">
-        <v>12.51331385310969</v>
+        <v>7.12996637658716</v>
       </c>
       <c r="F20">
-        <v>34.40693080369466</v>
+        <v>24.21107271586633</v>
       </c>
       <c r="I20">
-        <v>25.22758353404572</v>
+        <v>15.09888256571859</v>
       </c>
       <c r="J20">
-        <v>9.765146069408438</v>
+        <v>5.711003502030622</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.32162790647973</v>
+        <v>7.247124167171583</v>
       </c>
       <c r="M20">
-        <v>16.71620547424731</v>
+        <v>13.84704500131385</v>
       </c>
       <c r="N20">
-        <v>18.79784741450091</v>
+        <v>12.19448072463215</v>
       </c>
       <c r="O20">
-        <v>26.35684122193113</v>
+        <v>17.74211550615763</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.2258678643393</v>
+        <v>24.21946727262941</v>
       </c>
       <c r="C21">
-        <v>9.162124657035948</v>
+        <v>13.86582673422907</v>
       </c>
       <c r="D21">
-        <v>8.176685766931437</v>
+        <v>5.115057980379799</v>
       </c>
       <c r="E21">
-        <v>12.48406543172429</v>
+        <v>7.06323827445976</v>
       </c>
       <c r="F21">
-        <v>34.37633769188248</v>
+        <v>24.76606833606412</v>
       </c>
       <c r="I21">
-        <v>25.12774132621227</v>
+        <v>15.0371687845711</v>
       </c>
       <c r="J21">
-        <v>9.748830646527102</v>
+        <v>5.661877530230297</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.32728280204687</v>
+        <v>7.396941899472388</v>
       </c>
       <c r="M21">
-        <v>16.83672192998559</v>
+        <v>14.47527145566027</v>
       </c>
       <c r="N21">
-        <v>18.7396698163395</v>
+        <v>12.00623292905133</v>
       </c>
       <c r="O21">
-        <v>26.31112842610588</v>
+        <v>18.05031539558815</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.5388871375909</v>
+        <v>25.10215983282131</v>
       </c>
       <c r="C22">
-        <v>9.368308050046117</v>
+        <v>14.29353706390151</v>
       </c>
       <c r="D22">
-        <v>8.176847556117748</v>
+        <v>5.164913718278225</v>
       </c>
       <c r="E22">
-        <v>12.46577081682503</v>
+        <v>7.021213208267478</v>
       </c>
       <c r="F22">
-        <v>34.36309937030742</v>
+        <v>25.14456869013015</v>
       </c>
       <c r="I22">
-        <v>25.06659114075855</v>
+        <v>15.01189359954409</v>
       </c>
       <c r="J22">
-        <v>9.738557961955085</v>
+        <v>5.630316866238536</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.3320225437418</v>
+        <v>7.495631489195803</v>
       </c>
       <c r="M22">
-        <v>16.91666854816269</v>
+        <v>14.87512647374367</v>
       </c>
       <c r="N22">
-        <v>18.7031612243618</v>
+        <v>11.8861034190811</v>
       </c>
       <c r="O22">
-        <v>26.28619696778113</v>
+        <v>18.26595313135668</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.37235620694548</v>
+        <v>24.63460410281179</v>
       </c>
       <c r="C23">
-        <v>9.258939427578907</v>
+        <v>14.06676145880077</v>
       </c>
       <c r="D23">
-        <v>8.176702603290833</v>
+        <v>5.138231247635776</v>
       </c>
       <c r="E23">
-        <v>12.47546005130749</v>
+        <v>7.043496717794022</v>
       </c>
       <c r="F23">
-        <v>34.36954669571021</v>
+        <v>24.94111451274233</v>
       </c>
       <c r="I23">
-        <v>25.09885238035697</v>
+        <v>15.02395116076782</v>
       </c>
       <c r="J23">
-        <v>9.744005063996049</v>
+        <v>5.64711276424519</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.32939778642843</v>
+        <v>7.442894364440186</v>
       </c>
       <c r="M23">
-        <v>16.87389677606095</v>
+        <v>14.66272054406719</v>
       </c>
       <c r="N23">
-        <v>18.72250829994503</v>
+        <v>11.94995122739715</v>
       </c>
       <c r="O23">
-        <v>26.29905051954455</v>
+        <v>18.14954794768062</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.7304814319772</v>
+        <v>22.78533064597946</v>
       </c>
       <c r="C24">
-        <v>8.830075827489329</v>
+        <v>13.17493014589636</v>
       </c>
       <c r="D24">
-        <v>8.177444839727945</v>
+        <v>5.038830707084749</v>
       </c>
       <c r="E24">
-        <v>12.51380580000095</v>
+        <v>7.131083575783926</v>
       </c>
       <c r="F24">
-        <v>34.40754486202016</v>
+        <v>24.20226840452625</v>
       </c>
       <c r="I24">
-        <v>25.22928457498143</v>
+        <v>15.1001334568487</v>
       </c>
       <c r="J24">
-        <v>9.765419348929989</v>
+        <v>5.711815950317479</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.32155320301705</v>
+        <v>7.244689994654719</v>
       </c>
       <c r="M24">
-        <v>16.714256851858</v>
+        <v>13.83660137444918</v>
       </c>
       <c r="N24">
-        <v>18.79882391438778</v>
+        <v>12.19760609834073</v>
       </c>
       <c r="O24">
-        <v>26.35767174599768</v>
+        <v>17.7373145688077</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.01799005618252</v>
+        <v>20.62041413158538</v>
       </c>
       <c r="C25">
-        <v>8.337530140963821</v>
+        <v>12.14299470638026</v>
       </c>
       <c r="D25">
-        <v>8.181027323145754</v>
+        <v>4.935405127983993</v>
       </c>
       <c r="E25">
-        <v>12.55870966525312</v>
+        <v>7.232281102017152</v>
       </c>
       <c r="F25">
-        <v>34.47751659659405</v>
+        <v>23.47315807732982</v>
       </c>
       <c r="I25">
-        <v>25.38755157784107</v>
+        <v>15.24161307592118</v>
       </c>
       <c r="J25">
-        <v>9.790204171981399</v>
+        <v>5.784082258373345</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.31761713263736</v>
+        <v>7.034885458334786</v>
       </c>
       <c r="M25">
-        <v>16.54767158026237</v>
+        <v>12.90218480772858</v>
       </c>
       <c r="N25">
-        <v>18.88766998462999</v>
+        <v>12.47703316286796</v>
       </c>
       <c r="O25">
-        <v>26.4420823866872</v>
+        <v>17.35199517770231</v>
       </c>
     </row>
   </sheetData>
